--- a/RegressionTests/Unit_Test_5/transformed_secondzip/aptrans_anon.603520Irish_Life_Pension_Report_July_2020.xlsx
+++ b/RegressionTests/Unit_Test_5/transformed_secondzip/aptrans_anon.603520Irish_Life_Pension_Report_July_2020.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Pension EE</t>
   </si>
@@ -96,55 +96,58 @@
     <t>ISSUES FOUND</t>
   </si>
   <si>
-    <t>ee</t>
-  </si>
-  <si>
-    <t>er</t>
-  </si>
-  <si>
-    <t>avc</t>
-  </si>
-  <si>
-    <t>263.08</t>
-  </si>
-  <si>
-    <t>420.93</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>117.23</t>
-  </si>
-  <si>
-    <t>234.45</t>
-  </si>
-  <si>
-    <t>372.79</t>
-  </si>
-  <si>
-    <t>596.47</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>729.73</t>
-  </si>
-  <si>
-    <t>210.54</t>
-  </si>
-  <si>
-    <t>336.87</t>
-  </si>
-  <si>
-    <t>1751.04</t>
-  </si>
-  <si>
-    <t>560.33</t>
-  </si>
-  <si>
-    <t>4_Errors_found</t>
+    <t>FORENAME</t>
+  </si>
+  <si>
+    <t>SURNAME</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>AVC</t>
+  </si>
+  <si>
+    <t>Dromahane</t>
+  </si>
+  <si>
+    <t>Recess</t>
+  </si>
+  <si>
+    <t>Ballybofey</t>
+  </si>
+  <si>
+    <t>Kilcoole</t>
+  </si>
+  <si>
+    <t>Caherdaniel</t>
+  </si>
+  <si>
+    <t>Carndonagh</t>
+  </si>
+  <si>
+    <t>Sheeaun</t>
+  </si>
+  <si>
+    <t>D Knocknagoshel</t>
+  </si>
+  <si>
+    <t>Ballinode</t>
+  </si>
+  <si>
+    <t>O'Portnablagh</t>
+  </si>
+  <si>
+    <t>Rossaveel</t>
+  </si>
+  <si>
+    <t>Newtownforbes</t>
+  </si>
+  <si>
+    <t>2_Errors_found</t>
   </si>
   <si>
     <t>Error Type</t>
@@ -159,25 +162,10 @@
     <t>No unique ID reference column (REFNO/PPSNO/Payroll) was found</t>
   </si>
   <si>
-    <t>No Forename column was found</t>
-  </si>
-  <si>
-    <t>No Surname column was found</t>
-  </si>
-  <si>
     <t>schemeNotNull</t>
   </si>
   <si>
     <t>The Scheme ID is missing</t>
-  </si>
-  <si>
-    <t>EE</t>
-  </si>
-  <si>
-    <t>ER</t>
-  </si>
-  <si>
-    <t>AVC</t>
   </si>
   <si>
     <t>NEG_ROWS</t>
@@ -925,7 +913,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -936,7 +924,7 @@
     <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -949,89 +937,119 @@
       <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.25">
+      <c r="E1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="5"/>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.25">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>263.08</v>
+      </c>
+      <c r="E2">
+        <v>420.93</v>
+      </c>
+      <c r="F2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="5"/>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.25">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>117.23</v>
+      </c>
+      <c r="E3">
+        <v>234.45</v>
+      </c>
+      <c r="F3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25">
       <c r="A4" s="5"/>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.25">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>372.79</v>
+      </c>
+      <c r="E4">
+        <v>596.47</v>
+      </c>
+      <c r="F4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.25">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>500.0</v>
+      </c>
+      <c r="E5">
+        <v>729.73</v>
+      </c>
+      <c r="F5">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25">
       <c r="A6" s="5"/>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.25">
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>210.54</v>
+      </c>
+      <c r="E6">
+        <v>336.87</v>
+      </c>
+      <c r="F6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25">
       <c r="A7" s="5"/>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.25">
-      <c r="A8" s="5"/>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>1751.04</v>
+      </c>
+      <c r="E7">
+        <v>560.33</v>
+      </c>
+      <c r="F7">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1045,7 +1063,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1055,48 +1073,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15">
-      <c r="A6" t="s">
         <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1117,13 +1119,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
@@ -1139,22 +1141,22 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
